--- a/mathTransformed/HMPSTT_(2015-12-10)_28_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-12-10)_28_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S RatkalChincholi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S NiloorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Madan- HippargaAland</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S PethsiroorChittapur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S KhajuriAland</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalburagi</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S DuganoorSedam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High SchoolDesai KallurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G P U C (H S) Kamalapur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G G H S ShahabadChittapur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. High School for girls</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High School Kallur RoadChincholi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S ItkalSedam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G M P S Adarsh VidyalayaAtanoorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Galburga</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S AllurChittapur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -855,6 +930,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G P U C (H S ) Kamalapur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -882,6 +962,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. High School JidagaAland</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -909,6 +994,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S KardalChittapur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -936,6 +1026,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S HaranoorJewargi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -963,6 +1058,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Mathoshree Manorama MadavarajHigh SchoolAfzalpur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -987,6 +1087,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S NaiwarChittapur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1013,7 +1118,8 @@
           <t>SREEDEVIKA P R</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Kalburagi</t>
         </is>
@@ -1042,6 +1148,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. Girls High SchoolSulepethChincholi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -1069,6 +1180,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S MudholSedam</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1096,6 +1212,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S KurkuntaSedam</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -1123,6 +1244,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S NaribolJewargi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -1150,6 +1276,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt High School MuddadagaAland</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1177,6 +1308,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S BhankurCHittpur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1203,6 +1339,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>Govt. High School GaragapalliChincholi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Kalburgi</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-12-10)_28_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-12-10)_28_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Galburga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1118,10 +1118,9 @@
           <t>SREEDEVIKA P R</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Kalburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1152,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1184,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1216,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1248,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1280,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1312,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1344,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
